--- a/Docs/Planification_Reel_Gantt_SSL.xlsx
+++ b/Docs/Planification_Reel_Gantt_SSL.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>ACTIVITÉ</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Verifications</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1554,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BP32"/>
+  <dimension ref="B1:BP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1595,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="46" t="s">
@@ -1957,10 +1960,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="28">
+        <v>4</v>
+      </c>
+      <c r="G6" s="29">
         <v>1</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0.65</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>42</v>
@@ -2040,10 +2043,10 @@
         <v>17</v>
       </c>
       <c r="F7" s="32">
+        <v>5</v>
+      </c>
+      <c r="G7" s="25">
         <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0.7</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>42</v>
@@ -2123,10 +2126,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="32">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25">
         <v>1</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0.5</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>42</v>
@@ -2206,10 +2209,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="25">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>42</v>
@@ -2289,10 +2292,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>42</v>
@@ -2372,10 +2375,10 @@
         <v>27</v>
       </c>
       <c r="F11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="25">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>43</v>
@@ -2455,10 +2458,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>43</v>
@@ -2615,16 +2618,16 @@
         <v>31</v>
       </c>
       <c r="D14" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="32">
         <v>31</v>
       </c>
       <c r="F14" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="25">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>42</v>
@@ -2704,10 +2707,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>42</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>44</v>
@@ -3110,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H20" s="33" t="s">
         <v>44</v>
@@ -3190,10 +3193,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>44</v>
@@ -3276,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="33" t="s">
         <v>44</v>
@@ -3513,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="33" t="s">
         <v>45</v>
@@ -3596,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>45</v>
@@ -3670,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="32">
         <v>17</v>
@@ -3762,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>43</v>
@@ -3830,25 +3833,25 @@
     </row>
     <row r="29" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="32">
+        <v>3</v>
+      </c>
+      <c r="E29" s="32">
+        <v>32</v>
+      </c>
+      <c r="F29" s="32">
+        <v>3</v>
+      </c>
+      <c r="G29" s="25">
         <v>1</v>
       </c>
-      <c r="E29" s="32">
-        <v>36</v>
-      </c>
-      <c r="F29" s="32">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0.3</v>
-      </c>
       <c r="H29" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -3912,15 +3915,27 @@
       <c r="BP29" s="17"/>
     </row>
     <row r="30" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="B30" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="32">
+        <v>30</v>
+      </c>
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>30</v>
+      </c>
+      <c r="F30" s="32">
+        <v>2</v>
+      </c>
+      <c r="G30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -3983,27 +3998,15 @@
       <c r="BP30" s="17"/>
     </row>
     <row r="31" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="32">
-        <v>32</v>
-      </c>
-      <c r="D31" s="32">
-        <v>2</v>
-      </c>
-      <c r="E31" s="32">
-        <v>32</v>
-      </c>
-      <c r="F31" s="32">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>43</v>
-      </c>
+      <c r="B31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -4066,25 +4069,25 @@
       <c r="BP31" s="17"/>
     </row>
     <row r="32" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="35">
+      <c r="B32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="35">
+      <c r="C32" s="32">
+        <v>32</v>
+      </c>
+      <c r="D32" s="32">
         <v>2</v>
       </c>
-      <c r="E32" s="35">
-        <v>34</v>
-      </c>
-      <c r="F32" s="35">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="36" t="s">
+      <c r="E32" s="32">
+        <v>29</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="17"/>
@@ -4148,6 +4151,89 @@
       <c r="BO32" s="17"/>
       <c r="BP32" s="17"/>
     </row>
+    <row r="33" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="35">
+        <v>34</v>
+      </c>
+      <c r="D33" s="35">
+        <v>2</v>
+      </c>
+      <c r="E33" s="35">
+        <v>34</v>
+      </c>
+      <c r="F33" s="35">
+        <v>2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="17"/>
+      <c r="BL33" s="17"/>
+      <c r="BM33" s="17"/>
+      <c r="BN33" s="17"/>
+      <c r="BO33" s="17"/>
+      <c r="BP33" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="AJ2:AQ2"/>
@@ -4164,7 +4250,7 @@
     <mergeCell ref="AB2:AH2"/>
     <mergeCell ref="H3:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:BP32">
+  <conditionalFormatting sqref="I5:BP33">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PourcentageAccompli</formula>
     </cfRule>
@@ -4190,7 +4276,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:BP33">
+  <conditionalFormatting sqref="B34:BP34">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
